--- a/views/tablas de resultados.xlsx
+++ b/views/tablas de resultados.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\00.uniandes\07.Big Data\Taller 1\Problem_set_3\views\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4674DC2A-5896-4BF9-A2EE-5E833A39867D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B990AF4-8B1E-4108-8A83-F54D57D13D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0412E7F-7195-4D62-9340-29E35BEB239E}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{D0412E7F-7195-4D62-9340-29E35BEB239E}"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIT" sheetId="1" r:id="rId1"/>
+    <sheet name="OTROS" sheetId="4" r:id="rId2"/>
+    <sheet name="Predicion del ingreso" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
   <si>
     <t>(1)</t>
   </si>
@@ -117,14 +119,51 @@
   </si>
   <si>
     <t>Metricas de desempeño</t>
+  </si>
+  <si>
+    <t>KNN</t>
+  </si>
+  <si>
+    <t>LDA</t>
+  </si>
+  <si>
+    <t>QDA</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>(6)</t>
+  </si>
+  <si>
+    <t>(7)</t>
+  </si>
+  <si>
+    <t>(8)</t>
+  </si>
+  <si>
+    <t>(9)</t>
+  </si>
+  <si>
+    <t>(10)</t>
+  </si>
+  <si>
+    <t>(11)</t>
+  </si>
+  <si>
+    <t>(12)</t>
+  </si>
+  <si>
+    <t>(13)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -157,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -183,12 +222,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -198,6 +247,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -243,6 +295,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,380 +633,380 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF07D67-F653-4656-B12C-7A29B62CC3B6}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="4" customWidth="1"/>
     <col min="3" max="6" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="9">
         <v>0.82789999999999997</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="9">
         <v>0.85350000000000004</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="9">
         <v>0.83909999999999996</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="9">
         <v>0.85399999999999998</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="9">
         <v>0.85370000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="10">
         <v>0.9506</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="10">
         <v>0.94330000000000003</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="10">
         <v>0.88200000000000001</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="10">
         <v>0.94340000000000002</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="10">
         <v>0.95009999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="10">
         <v>0.33800000000000002</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="10">
         <v>0.49469999999999997</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="10">
         <v>0.66759999999999997</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="10">
         <v>0.49690000000000001</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="10">
         <v>0.46829999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="12">
         <v>125412</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="12">
         <v>124452</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="12">
         <v>116367</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="12">
         <v>124467</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="12">
         <v>125358</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="12">
         <v>11162</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="12">
         <v>16336</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="12">
         <v>22047</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="12">
         <v>16411</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="12">
         <v>15466</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="12">
         <v>21862</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="12">
         <v>16688</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="12">
         <v>10977</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="12">
         <v>16613</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="12">
         <v>17558</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="12">
         <v>6524</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="12">
         <v>7484</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="12">
         <v>15569</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="12">
         <v>7469</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="12">
         <v>6578</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="10">
         <v>0.86</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="10">
         <v>0.86499999999999999</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="10">
         <v>0.86499999999999999</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="10">
         <v>0.86</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="10">
         <v>0.85499999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="10">
         <v>0</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="10">
         <v>1E-3</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="10">
         <v>1E-3</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="10">
         <v>1E-3</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="10">
         <v>1E-4</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="14">
         <v>0.5</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="14">
         <v>0.5</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="14">
         <v>0.35</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="14">
         <v>0.5</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="14">
         <v>0.82</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="12">
         <v>10</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="12">
         <v>10</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="12">
         <v>10</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="12">
         <v>10</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="12">
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="21" t="s">
         <v>22</v>
       </c>
     </row>
@@ -942,4 +1015,329 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB4DA6B-BE37-4D40-A0AB-E51BB34AB30C}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="A1:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="22">
+        <v>0.80620000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="22">
+        <v>0.82679999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="22">
+        <v>0.85050000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="22">
+        <v>0.78300000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="22">
+        <v>0.78680000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="26">
+        <v>0.81530000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F54972C-B082-4CBC-98B3-A3B6C7DF9390}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A1:C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0.8387</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.94179999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.94259999999999999</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.94179999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0.42370000000000002</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="12">
+        <v>124360</v>
+      </c>
+      <c r="C8" s="12">
+        <v>155364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12">
+        <v>13992</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12">
+        <v>19032</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12">
+        <v>7576</v>
+      </c>
+      <c r="C11" s="12">
+        <v>9596</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="13"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="14">
+        <v>867.30460000000005</v>
+      </c>
+      <c r="C15" s="14">
+        <v>74519.149999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="12">
+        <v>5</v>
+      </c>
+      <c r="C19" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>